--- a/log_history/Y4_B2526_Cardiology_checklist1761803648096_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
+++ b/log_history/Y4_B2526_Cardiology_checklist1761803648096_08d8a653bec8cea6d369ec91345a0700ef109c09ff74e4a7475d684083459158.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE1FA2A-A0A1-4629-BF00-1934BE5D0AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79A5AFA-A904-44EF-8B87-509512632429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,6 +248,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -280,7 +283,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,22 +629,23 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -651,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -671,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -691,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -711,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -731,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -751,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -771,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -791,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -811,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -831,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -851,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -871,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -891,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -911,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -931,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -951,7 +955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -971,7 +975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -991,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
